--- a/data/sets.xlsx
+++ b/data/sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/flgalaz_uc_cl/Documents/DATA OPTI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4F155CF-5B86-4838-A2E8-808EC5370627}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6216483C-B39A-45C2-A6D0-2A74E273C972}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,8 +76,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -105,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,12 +472,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2:C366">_xlfn.SEQUENCE(365,1,1,1)</f>
@@ -478,12 +487,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -492,9 +501,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="B4">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -503,9 +512,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="B5">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -514,9 +523,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="B6">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -525,9 +534,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="B7">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -536,9 +545,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="B8">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -547,9 +556,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="B9">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -558,9 +567,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="B10">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -569,9 +578,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8" ht="15">
       <c r="B11">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -579,10 +588,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -591,9 +601,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="B13">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -602,9 +612,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8">
       <c r="B14">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -613,9 +623,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="B15">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -624,9 +634,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="B16">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -637,7 +647,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -648,7 +658,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -659,7 +669,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -670,7 +680,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -681,7 +691,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -691,9 +701,6 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22">
-        <v>2045</v>
-      </c>
       <c r="C22">
         <v>21</v>
       </c>
@@ -702,9 +709,6 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23">
-        <v>2046</v>
-      </c>
       <c r="C23">
         <v>22</v>
       </c>
